--- a/data/trans_orig/P14B03-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B03-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F75CD6A-11DF-42C2-B65B-F72694DAB7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35FA59F2-E115-419B-99B7-10BFE4837734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{716FCA76-D7C9-4B2D-8A15-9FFBC9C00ACF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0709548F-3F8E-4723-A243-EA98F57265CE}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -103,49 +103,49 @@
     <t>29,99%</t>
   </si>
   <si>
-    <t>73,44%</t>
+    <t>72,87%</t>
   </si>
   <si>
     <t>51,48%</t>
   </si>
   <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
   </si>
   <si>
     <t>42,44%</t>
   </si>
   <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
   </si>
   <si>
     <t>70,01%</t>
   </si>
   <si>
-    <t>26,56%</t>
+    <t>27,13%</t>
   </si>
   <si>
     <t>48,52%</t>
   </si>
   <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
   </si>
   <si>
     <t>57,56%</t>
   </si>
   <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -154,55 +154,55 @@
     <t>29,17%</t>
   </si>
   <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
   </si>
   <si>
     <t>36,29%</t>
   </si>
   <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
   </si>
   <si>
     <t>32,26%</t>
   </si>
   <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
   </si>
   <si>
     <t>70,83%</t>
   </si>
   <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
   </si>
   <si>
     <t>63,71%</t>
   </si>
   <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
   </si>
   <si>
     <t>67,74%</t>
   </si>
   <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -211,55 +211,55 @@
     <t>22,48%</t>
   </si>
   <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
   </si>
   <si>
     <t>30,11%</t>
   </si>
   <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
   </si>
   <si>
     <t>26,51%</t>
   </si>
   <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
   </si>
   <si>
     <t>77,52%</t>
   </si>
   <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
   </si>
   <si>
     <t>69,89%</t>
   </si>
   <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
   </si>
   <si>
     <t>73,49%</t>
   </si>
   <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -268,613 +268,607 @@
     <t>20,12%</t>
   </si>
   <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
   </si>
   <si>
     <t>27,16%</t>
   </si>
   <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
   </si>
   <si>
     <t>23,92%</t>
   </si>
   <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuya hipertensión le limita en 2015 (Tasa respuesta: 15,94%)</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
     <t>19,32%</t>
   </si>
   <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
   </si>
   <si>
     <t>80,68%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
   </si>
   <si>
     <t>35,36%</t>
   </si>
   <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
   </si>
   <si>
     <t>64,64%</t>
   </si>
   <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuya hipertensión le limita en 2015 (Tasa respuesta: 15,94%)</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>Población cuya hipertensión le limita en 2023 (Tasa respuesta: 26,1%)</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
   </si>
   <si>
     <t>12,93%</t>
   </si>
   <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
   </si>
   <si>
     <t>87,07%</t>
   </si>
   <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>Población cuya hipertensión le limita en 2023 (Tasa respuesta: 26,1%)</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
   </si>
   <si>
     <t>14,65%</t>
   </si>
   <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
   </si>
   <si>
     <t>14,25%</t>
   </si>
   <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
   </si>
   <si>
     <t>85,35%</t>
   </si>
   <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
   </si>
   <si>
     <t>85,75%</t>
   </si>
   <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
   </si>
   <si>
     <t>11,14%</t>
   </si>
   <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
   </si>
   <si>
     <t>12,34%</t>
   </si>
   <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
   </si>
   <si>
     <t>11,7%</t>
   </si>
   <si>
-    <t>8,82%</t>
+    <t>8,87%</t>
   </si>
   <si>
     <t>14,92%</t>
@@ -883,19 +877,19 @@
     <t>88,86%</t>
   </si>
   <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
   </si>
   <si>
     <t>87,66%</t>
   </si>
   <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
   </si>
   <si>
     <t>88,3%</t>
@@ -904,109 +898,115 @@
     <t>85,08%</t>
   </si>
   <si>
-    <t>91,18%</t>
+    <t>91,13%</t>
   </si>
   <si>
     <t>7,27%</t>
   </si>
   <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
   </si>
   <si>
     <t>15,97%</t>
   </si>
   <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
   </si>
   <si>
     <t>12,85%</t>
   </si>
   <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
   </si>
   <si>
     <t>92,73%</t>
   </si>
   <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
   </si>
   <si>
     <t>84,03%</t>
   </si>
   <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
   </si>
   <si>
     <t>87,15%</t>
   </si>
   <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
   </si>
   <si>
     <t>9,84%</t>
   </si>
   <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
   </si>
   <si>
     <t>14,9%</t>
   </si>
   <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
   </si>
   <si>
     <t>12,75%</t>
   </si>
   <si>
-    <t>14,51%</t>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
   </si>
   <si>
     <t>90,16%</t>
   </si>
   <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
   </si>
   <si>
     <t>85,1%</t>
   </si>
   <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
   </si>
   <si>
     <t>87,25%</t>
   </si>
   <si>
-    <t>85,49%</t>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
   </si>
 </sst>
 </file>
@@ -1418,7 +1418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27BD4216-0944-42A2-BFE1-B1F653802374}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75957462-68E6-41D7-9F5D-937465D61361}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2347,7 +2347,7 @@
         <v>101</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2362,13 +2362,13 @@
         <v>193058</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H20" s="7">
         <v>249</v>
@@ -2377,13 +2377,13 @@
         <v>268807</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M20" s="7">
         <v>428</v>
@@ -2392,13 +2392,13 @@
         <v>461865</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2466,13 +2466,13 @@
         <v>170338</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H22" s="7">
         <v>250</v>
@@ -2481,13 +2481,13 @@
         <v>265381</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M22" s="7">
         <v>402</v>
@@ -2496,13 +2496,13 @@
         <v>435720</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2517,13 +2517,13 @@
         <v>396798</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H23" s="7">
         <v>434</v>
@@ -2532,13 +2532,13 @@
         <v>472791</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="M23" s="7">
         <v>799</v>
@@ -2547,13 +2547,13 @@
         <v>869589</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2609,7 +2609,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2631,7 +2631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C173622A-3ED8-4791-96A1-839058A645CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292BAB00-FB0F-47A6-92E5-4EBCEBFAA7D1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2648,7 +2648,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2791,7 +2791,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2839,7 +2839,7 @@
         <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>18</v>
@@ -2910,13 +2910,13 @@
         <v>971</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2931,7 +2931,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -2940,13 +2940,13 @@
         <v>971</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2961,10 +2961,10 @@
         <v>6173</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>16</v>
@@ -2979,7 +2979,7 @@
         <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>18</v>
@@ -2991,10 +2991,10 @@
         <v>8068</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>16</v>
@@ -3065,13 +3065,13 @@
         <v>4026</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -3080,13 +3080,13 @@
         <v>5972</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -3095,13 +3095,13 @@
         <v>9997</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3116,13 +3116,13 @@
         <v>19162</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
@@ -3131,13 +3131,13 @@
         <v>10303</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M11" s="7">
         <v>28</v>
@@ -3146,13 +3146,13 @@
         <v>29465</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3220,13 +3220,13 @@
         <v>17465</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -3235,13 +3235,13 @@
         <v>11328</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -3250,13 +3250,13 @@
         <v>28793</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3271,13 +3271,13 @@
         <v>69806</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H14" s="7">
         <v>44</v>
@@ -3286,13 +3286,13 @@
         <v>47318</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>92</v>
+        <v>168</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M14" s="7">
         <v>107</v>
@@ -3301,13 +3301,13 @@
         <v>117124</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3375,13 +3375,13 @@
         <v>31723</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -3390,13 +3390,13 @@
         <v>38574</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M16" s="7">
         <v>63</v>
@@ -3405,13 +3405,13 @@
         <v>70297</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3426,13 +3426,13 @@
         <v>88751</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H17" s="7">
         <v>96</v>
@@ -3441,13 +3441,13 @@
         <v>109180</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M17" s="7">
         <v>174</v>
@@ -3456,13 +3456,13 @@
         <v>197931</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3530,13 +3530,13 @@
         <v>60424</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H19" s="7">
         <v>101</v>
@@ -3545,13 +3545,13 @@
         <v>121308</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M19" s="7">
         <v>167</v>
@@ -3560,13 +3560,13 @@
         <v>181731</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3581,13 +3581,13 @@
         <v>214270</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H20" s="7">
         <v>234</v>
@@ -3596,13 +3596,13 @@
         <v>282624</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M20" s="7">
         <v>463</v>
@@ -3611,13 +3611,13 @@
         <v>496895</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3685,13 +3685,13 @@
         <v>114608</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H22" s="7">
         <v>152</v>
@@ -3700,13 +3700,13 @@
         <v>177181</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M22" s="7">
         <v>266</v>
@@ -3715,13 +3715,13 @@
         <v>291789</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3736,13 +3736,13 @@
         <v>399566</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H23" s="7">
         <v>387</v>
@@ -3751,13 +3751,13 @@
         <v>452222</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M23" s="7">
         <v>781</v>
@@ -3766,13 +3766,13 @@
         <v>851788</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3828,7 +3828,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3850,7 +3850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A041A023-69E3-4A7E-890B-6F4ABA7EEBD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2E5C4D-FEFD-4789-9C21-383AA6572421}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3867,7 +3867,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3995,7 +3995,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4010,7 +4010,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,7 +4043,7 @@
         <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>18</v>
@@ -4058,7 +4058,7 @@
         <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>18</v>
@@ -4129,13 +4129,13 @@
         <v>1109</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -4159,13 +4159,13 @@
         <v>1109</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4180,10 +4180,10 @@
         <v>4477</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>16</v>
@@ -4198,7 +4198,7 @@
         <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>18</v>
@@ -4210,10 +4210,10 @@
         <v>9471</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>16</v>
@@ -4284,13 +4284,13 @@
         <v>2814</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -4299,13 +4299,13 @@
         <v>1657</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -4314,13 +4314,13 @@
         <v>4471</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>149</v>
+        <v>243</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4335,10 +4335,10 @@
         <v>17948</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>16</v>
@@ -4350,10 +4350,10 @@
         <v>12150</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>16</v>
@@ -4365,7 +4365,7 @@
         <v>30098</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>159</v>
+        <v>250</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>251</v>
@@ -4454,13 +4454,13 @@
         <v>13656</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M13" s="7">
         <v>35</v>
@@ -4469,13 +4469,13 @@
         <v>29928</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4490,13 +4490,13 @@
         <v>94829</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H14" s="7">
         <v>122</v>
@@ -4505,13 +4505,13 @@
         <v>85194</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M14" s="7">
         <v>219</v>
@@ -4520,13 +4520,13 @@
         <v>180023</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4594,13 +4594,13 @@
         <v>19587</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -4609,13 +4609,13 @@
         <v>19200</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M16" s="7">
         <v>58</v>
@@ -4624,13 +4624,13 @@
         <v>38788</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4645,13 +4645,13 @@
         <v>156248</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H17" s="7">
         <v>238</v>
@@ -4660,13 +4660,13 @@
         <v>136358</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M17" s="7">
         <v>413</v>
@@ -4675,13 +4675,13 @@
         <v>292605</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4749,13 +4749,13 @@
         <v>25235</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H19" s="7">
         <v>172</v>
@@ -4764,13 +4764,13 @@
         <v>99040</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="M19" s="7">
         <v>209</v>
@@ -4779,13 +4779,13 @@
         <v>124275</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4800,13 +4800,13 @@
         <v>321846</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="H20" s="7">
         <v>801</v>
@@ -4815,13 +4815,13 @@
         <v>521079</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="M20" s="7">
         <v>1292</v>
@@ -4830,13 +4830,13 @@
         <v>842925</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4904,13 +4904,13 @@
         <v>65018</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="H22" s="7">
         <v>230</v>
@@ -4919,13 +4919,13 @@
         <v>133553</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="M22" s="7">
         <v>307</v>
@@ -4934,13 +4934,13 @@
         <v>198571</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4955,13 +4955,13 @@
         <v>595508</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="H23" s="7">
         <v>1188</v>
@@ -4970,13 +4970,13 @@
         <v>763017</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="M23" s="7">
         <v>1975</v>
@@ -4985,13 +4985,13 @@
         <v>1358525</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,7 +5047,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14B03-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B03-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35FA59F2-E115-419B-99B7-10BFE4837734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{574499F1-8E38-4758-8720-883B6396E7D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0709548F-3F8E-4723-A243-EA98F57265CE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{110E01F0-A032-44CA-BC68-60B872256CA8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="325">
   <si>
     <t>Población cuya hipertensión le limita en 2012 (Tasa respuesta: 18,46%)</t>
   </si>
@@ -103,49 +103,49 @@
     <t>29,99%</t>
   </si>
   <si>
-    <t>72,87%</t>
+    <t>73,23%</t>
   </si>
   <si>
     <t>51,48%</t>
   </si>
   <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
   </si>
   <si>
     <t>42,44%</t>
   </si>
   <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
   </si>
   <si>
     <t>70,01%</t>
   </si>
   <si>
-    <t>27,13%</t>
+    <t>26,77%</t>
   </si>
   <si>
     <t>48,52%</t>
   </si>
   <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
   </si>
   <si>
     <t>57,56%</t>
   </si>
   <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -154,55 +154,55 @@
     <t>29,17%</t>
   </si>
   <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
   </si>
   <si>
     <t>36,29%</t>
   </si>
   <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
   </si>
   <si>
     <t>32,26%</t>
   </si>
   <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
   </si>
   <si>
     <t>70,83%</t>
   </si>
   <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
   </si>
   <si>
     <t>63,71%</t>
   </si>
   <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
   </si>
   <si>
     <t>67,74%</t>
   </si>
   <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -211,628 +211,634 @@
     <t>22,48%</t>
   </si>
   <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuya hipertensión le limita en 2016 (Tasa respuesta: 15,94%)</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>Población cuya hipertensión le limita en 2023 (Tasa respuesta: 26,1%)</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
     <t>13,81%</t>
   </si>
   <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
   </si>
   <si>
     <t>86,19%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuya hipertensión le limita en 2015 (Tasa respuesta: 15,94%)</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>Población cuya hipertensión le limita en 2023 (Tasa respuesta: 26,1%)</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
   </si>
   <si>
     <t>91,44%</t>
@@ -1418,7 +1424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75957462-68E6-41D7-9F5D-937465D61361}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDDDBFD4-B285-4471-B250-24CD6256BD66}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2347,7 +2353,7 @@
         <v>101</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2362,13 +2368,13 @@
         <v>193058</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H20" s="7">
         <v>249</v>
@@ -2377,13 +2383,13 @@
         <v>268807</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M20" s="7">
         <v>428</v>
@@ -2392,13 +2398,13 @@
         <v>461865</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2466,13 +2472,13 @@
         <v>170338</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H22" s="7">
         <v>250</v>
@@ -2481,13 +2487,13 @@
         <v>265381</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M22" s="7">
         <v>402</v>
@@ -2496,13 +2502,13 @@
         <v>435720</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2517,13 +2523,13 @@
         <v>396798</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H23" s="7">
         <v>434</v>
@@ -2532,13 +2538,13 @@
         <v>472791</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="M23" s="7">
         <v>799</v>
@@ -2547,13 +2553,13 @@
         <v>869589</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2609,7 +2615,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2631,7 +2637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292BAB00-FB0F-47A6-92E5-4EBCEBFAA7D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{710E964C-32DE-44BE-BCA8-31F1B4E05B8C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2648,7 +2654,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2791,7 +2797,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2839,7 +2845,7 @@
         <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>18</v>
@@ -2910,13 +2916,13 @@
         <v>971</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2931,7 +2937,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -2940,13 +2946,13 @@
         <v>971</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2961,10 +2967,10 @@
         <v>6173</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>16</v>
@@ -2979,7 +2985,7 @@
         <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>18</v>
@@ -2991,10 +2997,10 @@
         <v>8068</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>16</v>
@@ -3065,13 +3071,13 @@
         <v>4026</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -3080,13 +3086,13 @@
         <v>5972</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -3095,13 +3101,13 @@
         <v>9997</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3116,13 +3122,13 @@
         <v>19162</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
@@ -3131,13 +3137,13 @@
         <v>10303</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
         <v>28</v>
@@ -3146,13 +3152,13 @@
         <v>29465</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3220,13 +3226,13 @@
         <v>17465</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -3235,13 +3241,13 @@
         <v>11328</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -3250,13 +3256,13 @@
         <v>28793</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3271,13 +3277,13 @@
         <v>69806</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H14" s="7">
         <v>44</v>
@@ -3286,13 +3292,13 @@
         <v>47318</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
         <v>107</v>
@@ -3301,13 +3307,13 @@
         <v>117124</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3375,13 +3381,13 @@
         <v>31723</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -3390,13 +3396,13 @@
         <v>38574</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M16" s="7">
         <v>63</v>
@@ -3405,13 +3411,13 @@
         <v>70297</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3426,13 +3432,13 @@
         <v>88751</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H17" s="7">
         <v>96</v>
@@ -3441,13 +3447,13 @@
         <v>109180</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7">
         <v>174</v>
@@ -3456,13 +3462,13 @@
         <v>197931</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3530,13 +3536,13 @@
         <v>60424</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H19" s="7">
         <v>101</v>
@@ -3545,13 +3551,13 @@
         <v>121308</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M19" s="7">
         <v>167</v>
@@ -3560,13 +3566,13 @@
         <v>181731</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3581,13 +3587,13 @@
         <v>214270</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H20" s="7">
         <v>234</v>
@@ -3596,13 +3602,13 @@
         <v>282624</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M20" s="7">
         <v>463</v>
@@ -3611,13 +3617,13 @@
         <v>496895</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3685,13 +3691,13 @@
         <v>114608</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="H22" s="7">
         <v>152</v>
@@ -3700,13 +3706,13 @@
         <v>177181</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M22" s="7">
         <v>266</v>
@@ -3715,13 +3721,13 @@
         <v>291789</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3736,13 +3742,13 @@
         <v>399566</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H23" s="7">
         <v>387</v>
@@ -3751,13 +3757,13 @@
         <v>452222</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M23" s="7">
         <v>781</v>
@@ -3766,13 +3772,13 @@
         <v>851788</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3828,7 +3834,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3850,7 +3856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2E5C4D-FEFD-4789-9C21-383AA6572421}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE3CA4F-93D6-4743-BCC1-B30CAE57EBC6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3867,7 +3873,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3995,7 +4001,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4010,7 +4016,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,7 +4049,7 @@
         <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>18</v>
@@ -4058,7 +4064,7 @@
         <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>18</v>
@@ -4129,13 +4135,13 @@
         <v>1109</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4150,7 +4156,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -4159,13 +4165,13 @@
         <v>1109</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4180,10 +4186,10 @@
         <v>4477</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>16</v>
@@ -4198,7 +4204,7 @@
         <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>18</v>
@@ -4210,10 +4216,10 @@
         <v>9471</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>16</v>
@@ -4284,13 +4290,13 @@
         <v>2814</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -4299,13 +4305,13 @@
         <v>1657</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -4314,13 +4320,13 @@
         <v>4471</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4335,10 +4341,10 @@
         <v>17948</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>16</v>
@@ -4350,10 +4356,10 @@
         <v>12150</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>16</v>
@@ -4365,13 +4371,13 @@
         <v>30098</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4439,13 +4445,13 @@
         <v>16272</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -4454,13 +4460,13 @@
         <v>13656</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>57</v>
+        <v>258</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>257</v>
+        <v>185</v>
       </c>
       <c r="M13" s="7">
         <v>35</v>
@@ -4469,13 +4475,13 @@
         <v>29928</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4490,13 +4496,13 @@
         <v>94829</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H14" s="7">
         <v>122</v>
@@ -4505,13 +4511,13 @@
         <v>85194</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>67</v>
+        <v>266</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>264</v>
+        <v>195</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M14" s="7">
         <v>219</v>
@@ -4520,13 +4526,13 @@
         <v>180023</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4594,13 +4600,13 @@
         <v>19587</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -4609,13 +4615,13 @@
         <v>19200</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M16" s="7">
         <v>58</v>
@@ -4624,13 +4630,13 @@
         <v>38788</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4645,13 +4651,13 @@
         <v>156248</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H17" s="7">
         <v>238</v>
@@ -4660,13 +4666,13 @@
         <v>136358</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M17" s="7">
         <v>413</v>
@@ -4675,13 +4681,13 @@
         <v>292605</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4749,13 +4755,13 @@
         <v>25235</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H19" s="7">
         <v>172</v>
@@ -4764,13 +4770,13 @@
         <v>99040</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M19" s="7">
         <v>209</v>
@@ -4779,13 +4785,13 @@
         <v>124275</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4800,13 +4806,13 @@
         <v>321846</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H20" s="7">
         <v>801</v>
@@ -4815,13 +4821,13 @@
         <v>521079</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M20" s="7">
         <v>1292</v>
@@ -4830,13 +4836,13 @@
         <v>842925</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4904,13 +4910,13 @@
         <v>65018</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H22" s="7">
         <v>230</v>
@@ -4919,13 +4925,13 @@
         <v>133553</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M22" s="7">
         <v>307</v>
@@ -4934,13 +4940,13 @@
         <v>198571</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4955,13 +4961,13 @@
         <v>595508</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H23" s="7">
         <v>1188</v>
@@ -4970,13 +4976,13 @@
         <v>763017</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M23" s="7">
         <v>1975</v>
@@ -4985,13 +4991,13 @@
         <v>1358525</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,7 +5053,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
